--- a/Resultados_GEOcan_AGEO1_AGEO2/Execucoes_GEO_AGEOs.xlsx
+++ b/Resultados_GEOcan_AGEO1_AGEO2/Execucoes_GEO_AGEOs.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19665" windowHeight="7950" activeTab="1"/>
+    <workbookView windowWidth="19665" windowHeight="7950"/>
   </bookViews>
   <sheets>
-    <sheet name="Griewangk F2" sheetId="2" r:id="rId1"/>
+    <sheet name="Rosenbrock F2" sheetId="2" r:id="rId1"/>
     <sheet name="Griewangk F3" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
   <si>
     <t>F3 - Griewangk</t>
   </si>
@@ -23,13 +23,19 @@
     <t>NFOBs</t>
   </si>
   <si>
-    <t>GEOcan 50x</t>
+    <t>GEO</t>
   </si>
   <si>
-    <t>AGEO1 50x</t>
+    <t>AGEO1</t>
   </si>
   <si>
-    <t>AGEO2 50x</t>
+    <t>AGEO2</t>
+  </si>
+  <si>
+    <t>AGEO1var</t>
+  </si>
+  <si>
+    <t>AGEO2var</t>
   </si>
 </sst>
 </file>
@@ -37,10 +43,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -51,46 +57,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -105,8 +73,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -115,6 +128,37 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -134,36 +178,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -172,24 +186,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,19 +210,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -228,37 +258,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -276,7 +282,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,19 +354,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -312,84 +378,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -407,6 +413,19 @@
       <top style="thin">
         <color auto="true"/>
       </top>
+      <bottom style="thin">
+        <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="true"/>
+      </left>
+      <right style="thin">
+        <color auto="true"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="true"/>
       </bottom>
@@ -437,15 +456,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -457,32 +467,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,165 +494,209 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="10" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -745,9 +773,19 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="false"/>
+    <c:autoTitleDeleted val="true"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17024843773815"/>
+          <c:y val="0.0595238095238095"/>
+          <c:w val="0.774881877762536"/>
+          <c:h val="0.81017316017316"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="line"/>
         <c:varyColors val="false"/>
@@ -756,11 +794,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Griewangk F2'!$C$4</c:f>
+              <c:f>'Rosenbrock F2'!$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>GEOcan 50x</c:v>
+                  <c:v>GEO</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -782,7 +820,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'Griewangk F2'!$B$5:$B$45</c:f>
+              <c:f>'Rosenbrock F2'!$B$5:$B$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -914,7 +952,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Griewangk F2'!$C$5:$C$45</c:f>
+              <c:f>'Rosenbrock F2'!$C$5:$C$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -1051,11 +1089,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Griewangk F2'!$D$4</c:f>
+              <c:f>'Rosenbrock F2'!$D$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEO1 50x</c:v>
+                  <c:v>AGEO1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1078,7 +1116,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'Griewangk F2'!$B$5:$B$45</c:f>
+              <c:f>'Rosenbrock F2'!$B$5:$B$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -1210,7 +1248,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Griewangk F2'!$D$5:$D$45</c:f>
+              <c:f>'Rosenbrock F2'!$D$5:$D$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -1347,11 +1385,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Griewangk F2'!$E$4</c:f>
+              <c:f>'Rosenbrock F2'!$E$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEO2 50x</c:v>
+                  <c:v>AGEO2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1374,7 +1412,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'Griewangk F2'!$B$5:$B$45</c:f>
+              <c:f>'Rosenbrock F2'!$B$5:$B$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -1506,7 +1544,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Griewangk F2'!$E$5:$E$45</c:f>
+              <c:f>'Rosenbrock F2'!$E$5:$E$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -1632,6 +1670,596 @@
                 </c:pt>
                 <c:pt idx="40" c:formatCode="0.00E+00">
                   <c:v>1.90799339562917e-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="false"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Rosenbrock F2'!$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AGEO1var</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="true"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Rosenbrock F2'!$B$5:$B$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>125000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>175000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>225000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>275000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>325000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>350000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>375000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>425000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>450000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>475000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>525000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>550000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>575000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>625000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>650000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>675000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>725000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>750000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>775000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>825000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>850000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>875000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>900000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>925000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>950000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>975000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Rosenbrock F2'!$F$5:$F$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>365.714648609555</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00412919673688829</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.00211292690711494</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.00184779899015522</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.00135317106987136</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.000669939362767591</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.000580406826310439</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.000490775082165521</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.000490775082165521</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.000383797274247614</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.000383797274247614</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.000356974720879884</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.000356974720879884</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.000276491766698882</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.000273608010703421</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.000252260558749274</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.000240898188291573</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.000204865947743099</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.000195533596453004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.000182979572343809</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.000182979572343809</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.00016033928986063</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.00016033928986063</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.000151449189840931</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.000151449189840931</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.000138777884033155</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.000131829076709154</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.000123845462233584</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.000123451732906095</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.000107334088243823</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.000107334088243823</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.000107334088243823</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.000107334088243823</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.000107334088243823</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.000107334088243823</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.000107334088243823</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.000107334088243823</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.000107334088243823</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.000107334088243823</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.000107133537832099</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.000107133537832099</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="false"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Rosenbrock F2'!$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AGEO2var</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="true"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Rosenbrock F2'!$B$5:$B$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>125000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>175000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>225000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>275000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>325000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>350000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>375000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>425000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>450000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>475000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>525000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>550000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>575000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>625000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>650000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>675000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>725000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>750000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>775000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>825000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>850000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>875000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>900000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>925000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>950000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>975000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Rosenbrock F2'!$G$5:$G$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>232.098946148515</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00108075134332269</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.00018840900658957</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.000110522048796454</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="0.00E+00">
+                  <c:v>9.45955126402469e-5</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="0.00E+00">
+                  <c:v>9.15442670272326e-5</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="0.00E+00">
+                  <c:v>7.13261679939345e-5</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="0.00E+00">
+                  <c:v>6.18205412843963e-5</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="0.00E+00">
+                  <c:v>5.78873508525351e-5</c:v>
+                </c:pt>
+                <c:pt idx="9" c:formatCode="0.00E+00">
+                  <c:v>5.04226206164288e-5</c:v>
+                </c:pt>
+                <c:pt idx="10" c:formatCode="0.00E+00">
+                  <c:v>4.44036109028088e-5</c:v>
+                </c:pt>
+                <c:pt idx="11" c:formatCode="0.00E+00">
+                  <c:v>4.4223135920068e-5</c:v>
+                </c:pt>
+                <c:pt idx="12" c:formatCode="0.00E+00">
+                  <c:v>4.4223135920068e-5</c:v>
+                </c:pt>
+                <c:pt idx="13" c:formatCode="0.00E+00">
+                  <c:v>4.3257635483995e-5</c:v>
+                </c:pt>
+                <c:pt idx="14" c:formatCode="0.00E+00">
+                  <c:v>3.96016346512137e-5</c:v>
+                </c:pt>
+                <c:pt idx="15" c:formatCode="0.00E+00">
+                  <c:v>3.96016346512137e-5</c:v>
+                </c:pt>
+                <c:pt idx="16" c:formatCode="0.00E+00">
+                  <c:v>3.86377716759578e-5</c:v>
+                </c:pt>
+                <c:pt idx="17" c:formatCode="0.00E+00">
+                  <c:v>3.83884172673268e-5</c:v>
+                </c:pt>
+                <c:pt idx="18" c:formatCode="0.00E+00">
+                  <c:v>3.83884172673268e-5</c:v>
+                </c:pt>
+                <c:pt idx="19" c:formatCode="0.00E+00">
+                  <c:v>3.83884172673268e-5</c:v>
+                </c:pt>
+                <c:pt idx="20" c:formatCode="0.00E+00">
+                  <c:v>3.83884172673268e-5</c:v>
+                </c:pt>
+                <c:pt idx="21" c:formatCode="0.00E+00">
+                  <c:v>3.39188556009308e-5</c:v>
+                </c:pt>
+                <c:pt idx="22" c:formatCode="0.00E+00">
+                  <c:v>3.34270082129491e-5</c:v>
+                </c:pt>
+                <c:pt idx="23" c:formatCode="0.00E+00">
+                  <c:v>3.29893863384141e-5</c:v>
+                </c:pt>
+                <c:pt idx="24" c:formatCode="0.00E+00">
+                  <c:v>3.29893863384141e-5</c:v>
+                </c:pt>
+                <c:pt idx="25" c:formatCode="0.00E+00">
+                  <c:v>3.29893863384141e-5</c:v>
+                </c:pt>
+                <c:pt idx="26" c:formatCode="0.00E+00">
+                  <c:v>3.27804227111136e-5</c:v>
+                </c:pt>
+                <c:pt idx="27" c:formatCode="0.00E+00">
+                  <c:v>3.02951913797714e-5</c:v>
+                </c:pt>
+                <c:pt idx="28" c:formatCode="0.00E+00">
+                  <c:v>3.02951913797714e-5</c:v>
+                </c:pt>
+                <c:pt idx="29" c:formatCode="0.00E+00">
+                  <c:v>3.02951913797714e-5</c:v>
+                </c:pt>
+                <c:pt idx="30" c:formatCode="0.00E+00">
+                  <c:v>2.90438927393169e-5</c:v>
+                </c:pt>
+                <c:pt idx="31" c:formatCode="0.00E+00">
+                  <c:v>2.84670834894125e-5</c:v>
+                </c:pt>
+                <c:pt idx="32" c:formatCode="0.00E+00">
+                  <c:v>2.84670834894125e-5</c:v>
+                </c:pt>
+                <c:pt idx="33" c:formatCode="0.00E+00">
+                  <c:v>2.84670834894125e-5</c:v>
+                </c:pt>
+                <c:pt idx="34" c:formatCode="0.00E+00">
+                  <c:v>2.84670834894125e-5</c:v>
+                </c:pt>
+                <c:pt idx="35" c:formatCode="0.00E+00">
+                  <c:v>2.80040672880755e-5</c:v>
+                </c:pt>
+                <c:pt idx="36" c:formatCode="0.00E+00">
+                  <c:v>2.79047600315733e-5</c:v>
+                </c:pt>
+                <c:pt idx="37" c:formatCode="0.00E+00">
+                  <c:v>2.79047600315733e-5</c:v>
+                </c:pt>
+                <c:pt idx="38" c:formatCode="0.00E+00">
+                  <c:v>2.79047600315733e-5</c:v>
+                </c:pt>
+                <c:pt idx="39" c:formatCode="0.00E+00">
+                  <c:v>2.70714784155857e-5</c:v>
+                </c:pt>
+                <c:pt idx="40" c:formatCode="0.00E+00">
+                  <c:v>2.70714784155857e-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1782,6 +2410,44 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.65519557059688"/>
+          <c:y val="0.135831394757583"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="false"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="true"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="false"/>
@@ -1832,9 +2498,19 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="false"/>
+    <c:autoTitleDeleted val="true"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.113555555555556"/>
+          <c:y val="0.0411883862255233"/>
+          <c:w val="0.833172839506173"/>
+          <c:h val="0.856043214044564"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="line"/>
         <c:varyColors val="false"/>
@@ -1847,7 +2523,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>GEOcan 50x</c:v>
+                  <c:v>GEO</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2142,7 +2818,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEO1 50x</c:v>
+                  <c:v>AGEO1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2160,13 +2836,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dPt>
-            <c:idx val="11"/>
-            <c:marker>
-              <c:symbol val="none"/>
-            </c:marker>
-            <c:bubble3D val="false"/>
-          </c:dPt>
           <c:dLbls>
             <c:delete val="true"/>
           </c:dLbls>
@@ -2445,7 +3114,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEO2 50x</c:v>
+                  <c:v>AGEO2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2726,6 +3395,597 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0.0365433123726332</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="false"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Griewangk F3'!$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AGEO2var</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="true"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Griewangk F3'!$B$5:$B$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>125000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>175000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>225000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>275000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>325000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>350000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>375000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>425000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>450000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>475000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>525000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>550000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>575000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>625000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>650000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>675000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>725000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>750000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>775000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>825000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>850000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>875000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>900000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>925000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>950000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>975000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Griewangk F3'!$G$5:$G$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>271.751925750079</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0301135897028836</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0174566266066773</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0115620166732994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.00841389059030079</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.00832532587678011</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.00816169496834358</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.00789973785531663</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.00733416227869361</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.00733416227869361</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.00687142459005237</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.00687142459005237</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.00687142459005237</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.00687142459005237</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.00687142459005237</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0068653167437446</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0068653167437446</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0068653167437446</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0068653167437446</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0068653167437446</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.0068653167437446</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.0068653167437446</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.0068653167437446</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.0068653167437446</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.0068653167437446</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.0068653167437446</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.0068653167437446</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.0068653167437446</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.0068653167437446</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.0068653167437446</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.0068653167437446</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.0068653167437446</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.0068653167437446</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.0068653167437446</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.0068653167437446</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.0068653167437446</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.0068653167437446</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.0068653167437446</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.0068653167437446</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.0068653167437446</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.0068653167437446</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="false"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Griewangk F3'!$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AGEO1var</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="true"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Griewangk F3'!$B$5:$B$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>125000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>175000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>225000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>275000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>325000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>350000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>375000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>425000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>450000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>475000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>525000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>550000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>575000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>625000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>650000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>675000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>725000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>750000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>775000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>825000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>850000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>875000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>900000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>925000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>950000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>975000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Griewangk F3'!$F$5:$F$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>229.070330280407</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.461740658963114</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.461740658963114</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.461740658963114</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.461740658963114</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.461740658963114</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.461740658963114</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.461740658963114</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.461740658963114</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.461740658963114</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.461740658963114</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.461740658963114</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.461740658963114</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.461740658963114</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.461740658963114</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.461740658963114</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.461740658963114</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.461740658963114</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.461740658963114</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.461740658963114</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.461740658963114</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.461740658963114</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.461740658963114</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.461740658963114</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.461740658963114</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.461740658963114</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.461740658963114</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.461740658963114</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.461740658963114</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.461740658963114</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.461740658963114</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.461740658963114</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.461740658963114</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.461740658963114</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.461740658963114</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.461740658963114</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.461740658963114</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.461740658963114</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.461740658963114</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.461740658963114</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.461740658963114</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2876,6 +4136,44 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.647540709139692"/>
+          <c:y val="0.122190777426336"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="false"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="true"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="false"/>
@@ -4028,16 +5326,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>98425</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>537210</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>527685</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4045,8 +5343,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4460875" y="1295400"/>
-        <a:ext cx="3839210" cy="2400300"/>
+        <a:off x="6146800" y="1266825"/>
+        <a:ext cx="3858260" cy="2390775"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4058,16 +5356,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>555625</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>113665</xdr:rowOff>
+      <xdr:rowOff>151765</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4084,7 +5382,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8318500" y="1199515"/>
+          <a:off x="10213975" y="1237615"/>
           <a:ext cx="3940175" cy="2562860"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4101,16 +5399,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>113665</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>23495</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1270</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19685</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>212090</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>372745</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>70485</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4118,8 +5416,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4418965" y="1290320"/>
-        <a:ext cx="4899025" cy="3215005"/>
+        <a:off x="6344285" y="924560"/>
+        <a:ext cx="5172075" cy="3851275"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4131,16 +5429,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>242570</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>467360</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>654685</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>49530</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>193675</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4157,7 +5455,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9348470" y="1114425"/>
+          <a:off x="11610975" y="931545"/>
           <a:ext cx="5212715" cy="3459480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4428,625 +5726,883 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:E45"/>
+  <dimension ref="B2:G45"/>
   <sheetViews>
-    <sheetView topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="10.875" customWidth="true"/>
     <col min="3" max="3" width="12.375" customWidth="true"/>
     <col min="4" max="4" width="12" customWidth="true"/>
     <col min="5" max="5" width="12.625" customWidth="true"/>
+    <col min="6" max="6" width="11.75" customWidth="true"/>
+    <col min="7" max="7" width="10.75" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:7">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="2:5">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="2:7">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="2:5">
-      <c r="B4" s="1" t="s">
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="1">
+      <c r="F4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="3">
         <v>0</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3">
         <v>440.66475525803</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="3">
         <v>500.837957999341</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="3">
         <v>491.239631519886</v>
       </c>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6" s="1">
+      <c r="F5">
+        <v>365.714648609555</v>
+      </c>
+      <c r="G5">
+        <v>232.098946148515</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="3">
         <v>25000</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="3">
         <v>0.000554320653864464</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="3">
         <v>0.00194124910364542</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="3">
         <v>0.00952274294407247</v>
       </c>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7" s="1">
+      <c r="F6">
+        <v>0.00412919673688829</v>
+      </c>
+      <c r="G6">
+        <v>0.00108075134332269</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="3">
         <v>50000</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="3">
         <v>0.000173914023706958</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="3">
         <v>0.000409626337923701</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="3">
         <v>0.00393052454639805</v>
       </c>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8" s="1">
+      <c r="F7">
+        <v>0.00211292690711494</v>
+      </c>
+      <c r="G7">
+        <v>0.00018840900658957</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="3">
         <v>75000</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="3">
         <v>0.000122470916254201</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="3">
         <v>0.000301495968142717</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="4">
         <v>9.74207546854999e-5</v>
       </c>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" s="1">
+      <c r="F8">
+        <v>0.00184779899015522</v>
+      </c>
+      <c r="G8">
+        <v>0.000110522048796454</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="3">
         <v>100000</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="4">
         <v>7.33307680123839e-5</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="3">
         <v>0.00019794841157317</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="4">
         <v>7.69970213435155e-5</v>
       </c>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10" s="1">
+      <c r="F9">
+        <v>0.00135317106987136</v>
+      </c>
+      <c r="G9" s="5">
+        <v>9.45955126402469e-5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="3">
         <v>125000</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="4">
         <v>5.03545348767781e-5</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="3">
         <v>0.000195440820824435</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="4">
         <v>4.99998477748233e-5</v>
       </c>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="1">
+      <c r="F10">
+        <v>0.000669939362767591</v>
+      </c>
+      <c r="G10" s="5">
+        <v>9.15442670272326e-5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="3">
         <v>150000</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="4">
         <v>4.2834519132506e-5</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="3">
         <v>0.000191894850224044</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="4">
         <v>4.07774492275124e-5</v>
       </c>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="1">
+      <c r="F11">
+        <v>0.000580406826310439</v>
+      </c>
+      <c r="G11" s="5">
+        <v>7.13261679939345e-5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="3">
         <v>175000</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="4">
         <v>3.97639362092899e-5</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="3">
         <v>0.00015491931645064</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="4">
         <v>3.41023443485489e-5</v>
       </c>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13" s="1">
+      <c r="F12">
+        <v>0.000490775082165521</v>
+      </c>
+      <c r="G12" s="5">
+        <v>6.18205412843963e-5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="3">
         <v>200000</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="4">
         <v>3.94493129754305e-5</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="3">
         <v>0.00015491931645064</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="4">
         <v>2.51913248627642e-5</v>
       </c>
-    </row>
-    <row r="14" spans="2:5">
-      <c r="B14" s="1">
+      <c r="F13">
+        <v>0.000490775082165521</v>
+      </c>
+      <c r="G13" s="5">
+        <v>5.78873508525351e-5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="3">
         <v>225000</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="4">
         <v>2.84558025386658e-5</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="3">
         <v>0.00014272251706527</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="4">
         <v>2.13792429515132e-5</v>
       </c>
-    </row>
-    <row r="15" spans="2:5">
-      <c r="B15" s="1">
+      <c r="F14">
+        <v>0.000383797274247614</v>
+      </c>
+      <c r="G14" s="5">
+        <v>5.04226206164288e-5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="3">
         <v>250000</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="4">
         <v>2.63459213799948e-5</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="3">
         <v>0.000125778575463223</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="4">
         <v>2.13792429515132e-5</v>
       </c>
-    </row>
-    <row r="16" spans="2:5">
-      <c r="B16" s="1">
+      <c r="F15">
+        <v>0.000383797274247614</v>
+      </c>
+      <c r="G15" s="5">
+        <v>4.44036109028088e-5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="3">
         <v>275000</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="4">
         <v>2.63459213799948e-5</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="3">
         <v>0.00011171122982142</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="4">
         <v>2.00907922988416e-5</v>
       </c>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="1">
+      <c r="F16">
+        <v>0.000356974720879884</v>
+      </c>
+      <c r="G16" s="5">
+        <v>4.4223135920068e-5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="3">
         <v>300000</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="4">
         <v>2.38800494620906e-5</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="3">
         <v>0.00011171122982142</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="4">
         <v>1.25209485236896e-5</v>
       </c>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="1">
+      <c r="F17">
+        <v>0.000356974720879884</v>
+      </c>
+      <c r="G17" s="5">
+        <v>4.4223135920068e-5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="3">
         <v>325000</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="4">
         <v>2.18123844694298e-5</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="4">
         <v>9.90127777824673e-5</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="4">
         <v>1.15634713785299e-5</v>
       </c>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="1">
+      <c r="F18">
+        <v>0.000276491766698882</v>
+      </c>
+      <c r="G18" s="5">
+        <v>4.3257635483995e-5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="3">
         <v>350000</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="4">
         <v>2.18123844694298e-5</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="4">
         <v>9.64279265057088e-5</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="4">
         <v>1.15575224993583e-5</v>
       </c>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="1">
+      <c r="F19">
+        <v>0.000273608010703421</v>
+      </c>
+      <c r="G19" s="5">
+        <v>3.96016346512137e-5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="3">
         <v>375000</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="4">
         <v>1.62696177069162e-5</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="4">
         <v>9.64279265057088e-5</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="4">
         <v>1.01606449699457e-5</v>
       </c>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="B21" s="1">
+      <c r="F20">
+        <v>0.000252260558749274</v>
+      </c>
+      <c r="G20" s="5">
+        <v>3.96016346512137e-5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="3">
         <v>400000</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="4">
         <v>1.26447556405826e-5</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="4">
         <v>9.64279265057088e-5</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="4">
         <v>1.01606449699457e-5</v>
       </c>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="1">
+      <c r="F21">
+        <v>0.000240898188291573</v>
+      </c>
+      <c r="G21" s="5">
+        <v>3.86377716759578e-5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="3">
         <v>425000</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="4">
         <v>1.26447556405826e-5</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="4">
         <v>9.25435190024964e-5</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="4">
         <v>9.32959877668398e-6</v>
       </c>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="B23" s="1">
+      <c r="F22">
+        <v>0.000204865947743099</v>
+      </c>
+      <c r="G22" s="5">
+        <v>3.83884172673268e-5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="3">
         <v>450000</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="4">
         <v>1.26447556405826e-5</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="4">
         <v>9.25435190024964e-5</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="4">
         <v>9.32959877668398e-6</v>
       </c>
-    </row>
-    <row r="24" spans="2:5">
-      <c r="B24" s="1">
+      <c r="F23">
+        <v>0.000195533596453004</v>
+      </c>
+      <c r="G23" s="5">
+        <v>3.83884172673268e-5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="3">
         <v>475000</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="4">
         <v>1.26447556405826e-5</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="4">
         <v>7.20306655631568e-5</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="4">
         <v>7.91699086760873e-6</v>
       </c>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="B25" s="1">
+      <c r="F24">
+        <v>0.000182979572343809</v>
+      </c>
+      <c r="G24" s="5">
+        <v>3.83884172673268e-5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="3">
         <v>500000</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="4">
         <v>1.26447556405826e-5</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="4">
         <v>7.18456336065918e-5</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="4">
         <v>7.91699086760873e-6</v>
       </c>
-    </row>
-    <row r="26" spans="2:5">
-      <c r="B26" s="1">
+      <c r="F25">
+        <v>0.000182979572343809</v>
+      </c>
+      <c r="G25" s="5">
+        <v>3.83884172673268e-5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="3">
         <v>525000</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="4">
         <v>1.25194287346862e-5</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="4">
         <v>7.18456336065918e-5</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="4">
         <v>5.06993693042566e-6</v>
       </c>
-    </row>
-    <row r="27" spans="2:5">
-      <c r="B27" s="1">
+      <c r="F26">
+        <v>0.00016033928986063</v>
+      </c>
+      <c r="G26" s="5">
+        <v>3.39188556009308e-5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="3">
         <v>550000</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="4">
         <v>1.25194287346862e-5</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="4">
         <v>7.18456336065918e-5</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="4">
         <v>3.33407841712446e-6</v>
       </c>
-    </row>
-    <row r="28" spans="2:5">
-      <c r="B28" s="1">
+      <c r="F27">
+        <v>0.00016033928986063</v>
+      </c>
+      <c r="G27" s="5">
+        <v>3.34270082129491e-5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="3">
         <v>575000</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="4">
         <v>1.18167686512749e-5</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="4">
         <v>6.59898093078658e-5</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="4">
         <v>2.26229803149943e-6</v>
       </c>
-    </row>
-    <row r="29" spans="2:5">
-      <c r="B29" s="1">
+      <c r="F28">
+        <v>0.000151449189840931</v>
+      </c>
+      <c r="G28" s="5">
+        <v>3.29893863384141e-5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="3">
         <v>600000</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="4">
         <v>1.157947081651e-5</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="4">
         <v>6.59898093078658e-5</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="4">
         <v>2.26229803149943e-6</v>
       </c>
-    </row>
-    <row r="30" spans="2:5">
-      <c r="B30" s="1">
+      <c r="F29">
+        <v>0.000151449189840931</v>
+      </c>
+      <c r="G29" s="5">
+        <v>3.29893863384141e-5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="3">
         <v>625000</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="4">
         <v>1.05873939462582e-5</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="4">
         <v>6.4977612091143e-5</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="4">
         <v>2.13391192164898e-6</v>
       </c>
-    </row>
-    <row r="31" spans="2:5">
-      <c r="B31" s="1">
+      <c r="F30">
+        <v>0.000138777884033155</v>
+      </c>
+      <c r="G30" s="5">
+        <v>3.29893863384141e-5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="3">
         <v>650000</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="4">
         <v>1.03860646152649e-5</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="4">
         <v>6.4977612091143e-5</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="4">
         <v>2.13391192164898e-6</v>
       </c>
-    </row>
-    <row r="32" spans="2:5">
-      <c r="B32" s="1">
+      <c r="F31">
+        <v>0.000131829076709154</v>
+      </c>
+      <c r="G31" s="5">
+        <v>3.27804227111136e-5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="3">
         <v>675000</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="4">
         <v>9.32531746550556e-6</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="4">
         <v>6.02234485332422e-5</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="4">
         <v>2.13391192164898e-6</v>
       </c>
-    </row>
-    <row r="33" spans="2:5">
-      <c r="B33" s="1">
+      <c r="F32">
+        <v>0.000123845462233584</v>
+      </c>
+      <c r="G32" s="5">
+        <v>3.02951913797714e-5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="3">
         <v>700000</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="4">
         <v>8.16653101698872e-6</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="4">
         <v>5.58570358559445e-5</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="4">
         <v>1.91394227480077e-6</v>
       </c>
-    </row>
-    <row r="34" spans="2:5">
-      <c r="B34" s="1">
+      <c r="F33">
+        <v>0.000123451732906095</v>
+      </c>
+      <c r="G33" s="5">
+        <v>3.02951913797714e-5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="3">
         <v>725000</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="4">
         <v>7.82295361914684e-6</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="4">
         <v>4.98566648223615e-5</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="4">
         <v>1.91394227480077e-6</v>
       </c>
-    </row>
-    <row r="35" spans="2:5">
-      <c r="B35" s="1">
+      <c r="F34">
+        <v>0.000107334088243823</v>
+      </c>
+      <c r="G34" s="5">
+        <v>3.02951913797714e-5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="3">
         <v>750000</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="4">
         <v>6.50722494657881e-6</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="4">
         <v>4.26115110654588e-5</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="4">
         <v>1.91394227480077e-6</v>
       </c>
-    </row>
-    <row r="36" spans="2:5">
-      <c r="B36" s="1">
+      <c r="F35">
+        <v>0.000107334088243823</v>
+      </c>
+      <c r="G35" s="5">
+        <v>2.90438927393169e-5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="3">
         <v>775000</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="4">
         <v>6.50722494657881e-6</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="4">
         <v>4.26115110654588e-5</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="4">
         <v>1.91394227480077e-6</v>
       </c>
-    </row>
-    <row r="37" spans="2:5">
-      <c r="B37" s="1">
+      <c r="F36">
+        <v>0.000107334088243823</v>
+      </c>
+      <c r="G36" s="5">
+        <v>2.84670834894125e-5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" s="3">
         <v>800000</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="4">
         <v>6.48880673294397e-6</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="4">
         <v>4.26115110654588e-5</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="4">
         <v>1.91394227480077e-6</v>
       </c>
-    </row>
-    <row r="38" spans="2:5">
-      <c r="B38" s="1">
+      <c r="F37">
+        <v>0.000107334088243823</v>
+      </c>
+      <c r="G37" s="5">
+        <v>2.84670834894125e-5</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="3">
         <v>825000</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="4">
         <v>6.31762964493515e-6</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="4">
         <v>4.26115110654588e-5</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="4">
         <v>1.91394227480077e-6</v>
       </c>
-    </row>
-    <row r="39" spans="2:5">
-      <c r="B39" s="1">
+      <c r="F38">
+        <v>0.000107334088243823</v>
+      </c>
+      <c r="G38" s="5">
+        <v>2.84670834894125e-5</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="3">
         <v>850000</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="4">
         <v>6.31762964493515e-6</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="4">
         <v>4.26115110654588e-5</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="4">
         <v>1.91394227480077e-6</v>
       </c>
-    </row>
-    <row r="40" spans="2:5">
-      <c r="B40" s="1">
+      <c r="F39">
+        <v>0.000107334088243823</v>
+      </c>
+      <c r="G39" s="5">
+        <v>2.84670834894125e-5</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="3">
         <v>875000</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="4">
         <v>6.31762964493515e-6</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="4">
         <v>4.26115110654588e-5</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="4">
         <v>1.91394227480077e-6</v>
       </c>
-    </row>
-    <row r="41" spans="2:5">
-      <c r="B41" s="1">
+      <c r="F40">
+        <v>0.000107334088243823</v>
+      </c>
+      <c r="G40" s="5">
+        <v>2.80040672880755e-5</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="3">
         <v>900000</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="4">
         <v>6.10857359711287e-6</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="4">
         <v>4.26115110654588e-5</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="4">
         <v>1.91394227480077e-6</v>
       </c>
-    </row>
-    <row r="42" spans="2:5">
-      <c r="B42" s="1">
+      <c r="F41">
+        <v>0.000107334088243823</v>
+      </c>
+      <c r="G41" s="5">
+        <v>2.79047600315733e-5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" s="3">
         <v>925000</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="4">
         <v>6.10857359711287e-6</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="4">
         <v>4.0071373207515e-5</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="4">
         <v>1.91394227480077e-6</v>
       </c>
-    </row>
-    <row r="43" spans="2:5">
-      <c r="B43" s="1">
+      <c r="F42">
+        <v>0.000107334088243823</v>
+      </c>
+      <c r="G42" s="5">
+        <v>2.79047600315733e-5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" s="3">
         <v>950000</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="4">
         <v>6.10857359711287e-6</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="4">
         <v>4.0071373207515e-5</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="4">
         <v>1.90799339562917e-6</v>
       </c>
-    </row>
-    <row r="44" spans="2:5">
-      <c r="B44" s="1">
+      <c r="F43">
+        <v>0.000107334088243823</v>
+      </c>
+      <c r="G43" s="5">
+        <v>2.79047600315733e-5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44" s="3">
         <v>975000</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="4">
         <v>6.10857359711287e-6</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="4">
         <v>3.87780834383876e-5</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="4">
         <v>1.90799339562917e-6</v>
       </c>
-    </row>
-    <row r="45" spans="2:5">
-      <c r="B45" s="1">
+      <c r="F44">
+        <v>0.000107133537832099</v>
+      </c>
+      <c r="G44" s="5">
+        <v>2.70714784155857e-5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45" s="3">
         <v>1000000</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="4">
         <v>5.39932594382054e-6</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="4">
         <v>3.87780834383876e-5</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="4">
         <v>1.90799339562917e-6</v>
+      </c>
+      <c r="F45">
+        <v>0.000107133537832099</v>
+      </c>
+      <c r="G45" s="5">
+        <v>2.70714784155857e-5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:E3"/>
+    <mergeCell ref="B2:G3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -5057,624 +6613,882 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:E45"/>
+  <dimension ref="B2:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E45"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="3" max="3" width="13.5" customWidth="true"/>
     <col min="4" max="4" width="12.375" customWidth="true"/>
     <col min="5" max="5" width="12.625" customWidth="true"/>
+    <col min="6" max="6" width="14.1166666666667" customWidth="true"/>
+    <col min="7" max="7" width="12.625"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:7">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="2:5">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="2:7">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="2:5">
-      <c r="B4" s="1" t="s">
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="1">
+      <c r="F4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="3">
         <v>0</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3">
         <v>253.811043373057</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="3">
         <v>265.512360282493</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="3">
         <v>272.533176997247</v>
       </c>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6" s="1">
+      <c r="F5">
+        <v>229.070330280407</v>
+      </c>
+      <c r="G5">
+        <v>271.751925750079</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="3">
         <v>25000</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="3">
         <v>0.281273180438076</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="3">
         <v>0.609554353352554</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="3">
         <v>0.217439656563678</v>
       </c>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7" s="1">
+      <c r="F6">
+        <v>0.461740658963114</v>
+      </c>
+      <c r="G6">
+        <v>0.0301135897028836</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="3">
         <v>50000</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="3">
         <v>0.193583298605507</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="3">
         <v>0.609554353352554</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="3">
         <v>0.184493597212808</v>
       </c>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8" s="1">
+      <c r="F7">
+        <v>0.461740658963114</v>
+      </c>
+      <c r="G7">
+        <v>0.0174566266066773</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="3">
         <v>75000</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="3">
         <v>0.160676789573741</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="3">
         <v>0.609554353352554</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="3">
         <v>0.141788110465073</v>
       </c>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" s="1">
+      <c r="F8">
+        <v>0.461740658963114</v>
+      </c>
+      <c r="G8">
+        <v>0.0115620166732994</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="3">
         <v>100000</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="3">
         <v>0.137529800836711</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="3">
         <v>0.609554353352554</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="3">
         <v>0.121639084982689</v>
       </c>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10" s="1">
+      <c r="F9">
+        <v>0.461740658963114</v>
+      </c>
+      <c r="G9">
+        <v>0.00841389059030079</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="3">
         <v>125000</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="3">
         <v>0.113899119863814</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="3">
         <v>0.609554353352554</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="3">
         <v>0.116118340905828</v>
       </c>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="1">
+      <c r="F10">
+        <v>0.461740658963114</v>
+      </c>
+      <c r="G10">
+        <v>0.00832532587678011</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="3">
         <v>150000</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="3">
         <v>0.103731900078875</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="3">
         <v>0.609554353352554</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="3">
         <v>0.101132655691863</v>
       </c>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="1">
+      <c r="F11">
+        <v>0.461740658963114</v>
+      </c>
+      <c r="G11">
+        <v>0.00816169496834358</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="3">
         <v>175000</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="3">
         <v>0.0952004876935024</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="3">
         <v>0.609554353352554</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="3">
         <v>0.0969238393287958</v>
       </c>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13" s="1">
+      <c r="F12">
+        <v>0.461740658963114</v>
+      </c>
+      <c r="G12">
+        <v>0.00789973785531663</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="3">
         <v>200000</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="3">
         <v>0.0920695138823438</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="3">
         <v>0.609554353352554</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="3">
         <v>0.0965877845301716</v>
       </c>
-    </row>
-    <row r="14" spans="2:5">
-      <c r="B14" s="1">
+      <c r="F13">
+        <v>0.461740658963114</v>
+      </c>
+      <c r="G13">
+        <v>0.00733416227869361</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="3">
         <v>225000</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="3">
         <v>0.0831863433908673</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="3">
         <v>0.541826073183385</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="3">
         <v>0.0658766102348425</v>
       </c>
-    </row>
-    <row r="15" spans="2:5">
-      <c r="B15" s="1">
+      <c r="F14">
+        <v>0.461740658963114</v>
+      </c>
+      <c r="G14">
+        <v>0.00733416227869361</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="3">
         <v>250000</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="3">
         <v>0.0775859522066282</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="3">
         <v>0.497277005023824</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="3">
         <v>0.0555962425257241</v>
       </c>
-    </row>
-    <row r="16" spans="2:5">
-      <c r="B16" s="1">
+      <c r="F15">
+        <v>0.461740658963114</v>
+      </c>
+      <c r="G15">
+        <v>0.00687142459005237</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="3">
         <v>275000</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="3">
         <v>0.0755670808035468</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="3">
         <v>0.497277005023824</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="3">
         <v>0.0546080163329758</v>
       </c>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="1">
+      <c r="F16">
+        <v>0.461740658963114</v>
+      </c>
+      <c r="G16">
+        <v>0.00687142459005237</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="3">
         <v>300000</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="3">
         <v>0.071560089607557</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="3">
         <v>0.497277005023824</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="3">
         <v>0.0494746719028351</v>
       </c>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="1">
+      <c r="F17">
+        <v>0.461740658963114</v>
+      </c>
+      <c r="G17">
+        <v>0.00687142459005237</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="3">
         <v>325000</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="3">
         <v>0.0688585292240625</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="3">
         <v>0.497277005023824</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="3">
         <v>0.0493837500270995</v>
       </c>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="1">
+      <c r="F18">
+        <v>0.461740658963114</v>
+      </c>
+      <c r="G18">
+        <v>0.00687142459005237</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="3">
         <v>350000</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="3">
         <v>0.0668532391133601</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="3">
         <v>0.497277005023824</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="3">
         <v>0.0476720408518112</v>
       </c>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="1">
+      <c r="F19">
+        <v>0.461740658963114</v>
+      </c>
+      <c r="G19">
+        <v>0.00687142459005237</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="3">
         <v>375000</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="3">
         <v>0.064332572591678</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="3">
         <v>0.497277005023824</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="3">
         <v>0.0476720408518112</v>
       </c>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="B21" s="1">
+      <c r="F20">
+        <v>0.461740658963114</v>
+      </c>
+      <c r="G20">
+        <v>0.0068653167437446</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="3">
         <v>400000</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="3">
         <v>0.0611923457170564</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="3">
         <v>0.497277005023824</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="3">
         <v>0.0476720408518112</v>
       </c>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="1">
+      <c r="F21">
+        <v>0.461740658963114</v>
+      </c>
+      <c r="G21">
+        <v>0.0068653167437446</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="3">
         <v>425000</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="3">
         <v>0.0611923457170564</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="3">
         <v>0.497277005023824</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="3">
         <v>0.0472537703429533</v>
       </c>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="B23" s="1">
+      <c r="F22">
+        <v>0.461740658963114</v>
+      </c>
+      <c r="G22">
+        <v>0.0068653167437446</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="3">
         <v>450000</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="3">
         <v>0.0606318355152082</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="3">
         <v>0.497277005023824</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="3">
         <v>0.0472537703429533</v>
       </c>
-    </row>
-    <row r="24" spans="2:5">
-      <c r="B24" s="1">
+      <c r="F23">
+        <v>0.461740658963114</v>
+      </c>
+      <c r="G23">
+        <v>0.0068653167437446</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="3">
         <v>475000</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="3">
         <v>0.0555185635187627</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="3">
         <v>0.497277005023824</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="3">
         <v>0.0472537703429533</v>
       </c>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="B25" s="1">
+      <c r="F24">
+        <v>0.461740658963114</v>
+      </c>
+      <c r="G24">
+        <v>0.0068653167437446</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="3">
         <v>500000</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="3">
         <v>0.0535528520062945</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="3">
         <v>0.497277005023824</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="3">
         <v>0.0472537703429533</v>
       </c>
-    </row>
-    <row r="26" spans="2:5">
-      <c r="B26" s="1">
+      <c r="F25">
+        <v>0.461740658963114</v>
+      </c>
+      <c r="G25">
+        <v>0.0068653167437446</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="3">
         <v>525000</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="3">
         <v>0.0535528520062945</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="3">
         <v>0.497277005023824</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="3">
         <v>0.0472537703429533</v>
       </c>
-    </row>
-    <row r="27" spans="2:5">
-      <c r="B27" s="1">
+      <c r="F26">
+        <v>0.461740658963114</v>
+      </c>
+      <c r="G26">
+        <v>0.0068653167437446</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="3">
         <v>550000</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="3">
         <v>0.0535528520062945</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="3">
         <v>0.497277005023824</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="3">
         <v>0.0472537703429533</v>
       </c>
-    </row>
-    <row r="28" spans="2:5">
-      <c r="B28" s="1">
+      <c r="F27">
+        <v>0.461740658963114</v>
+      </c>
+      <c r="G27">
+        <v>0.0068653167437446</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="3">
         <v>575000</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="3">
         <v>0.0535528520062945</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="3">
         <v>0.497277005023824</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="3">
         <v>0.0472537703429533</v>
       </c>
-    </row>
-    <row r="29" spans="2:5">
-      <c r="B29" s="1">
+      <c r="F28">
+        <v>0.461740658963114</v>
+      </c>
+      <c r="G28">
+        <v>0.0068653167437446</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="3">
         <v>600000</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="3">
         <v>0.0526556950251679</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="3">
         <v>0.497277005023824</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="3">
         <v>0.0472537703429533</v>
       </c>
-    </row>
-    <row r="30" spans="2:5">
-      <c r="B30" s="1">
+      <c r="F29">
+        <v>0.461740658963114</v>
+      </c>
+      <c r="G29">
+        <v>0.0068653167437446</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="3">
         <v>625000</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="3">
         <v>0.051686823537095</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="3">
         <v>0.497277005023824</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="3">
         <v>0.0472537703429533</v>
       </c>
-    </row>
-    <row r="31" spans="2:5">
-      <c r="B31" s="1">
+      <c r="F30">
+        <v>0.461740658963114</v>
+      </c>
+      <c r="G30">
+        <v>0.0068653167437446</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="3">
         <v>650000</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="3">
         <v>0.0502648271246386</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="3">
         <v>0.497277005023824</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="3">
         <v>0.0472537703429533</v>
       </c>
-    </row>
-    <row r="32" spans="2:5">
-      <c r="B32" s="1">
+      <c r="F31">
+        <v>0.461740658963114</v>
+      </c>
+      <c r="G31">
+        <v>0.0068653167437446</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="3">
         <v>675000</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="3">
         <v>0.0502648271246386</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="3">
         <v>0.497277005023824</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="3">
         <v>0.0472537703429533</v>
       </c>
-    </row>
-    <row r="33" spans="2:5">
-      <c r="B33" s="1">
+      <c r="F32">
+        <v>0.461740658963114</v>
+      </c>
+      <c r="G32">
+        <v>0.0068653167437446</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="3">
         <v>700000</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="3">
         <v>0.0493442533378623</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="3">
         <v>0.497277005023824</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="3">
         <v>0.0470955119553859</v>
       </c>
-    </row>
-    <row r="34" spans="2:5">
-      <c r="B34" s="1">
+      <c r="F33">
+        <v>0.461740658963114</v>
+      </c>
+      <c r="G33">
+        <v>0.0068653167437446</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="3">
         <v>725000</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="3">
         <v>0.0493442533378623</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="3">
         <v>0.497277005023824</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="3">
         <v>0.0394940271394406</v>
       </c>
-    </row>
-    <row r="35" spans="2:5">
-      <c r="B35" s="1">
+      <c r="F34">
+        <v>0.461740658963114</v>
+      </c>
+      <c r="G34">
+        <v>0.0068653167437446</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="3">
         <v>750000</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="3">
         <v>0.0493442533378623</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="3">
         <v>0.497277005023824</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="3">
         <v>0.0394940271394406</v>
       </c>
-    </row>
-    <row r="36" spans="2:5">
-      <c r="B36" s="1">
+      <c r="F35">
+        <v>0.461740658963114</v>
+      </c>
+      <c r="G35">
+        <v>0.0068653167437446</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="3">
         <v>775000</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="3">
         <v>0.0493442533378623</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="3">
         <v>0.497277005023824</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="3">
         <v>0.0394940271394406</v>
       </c>
-    </row>
-    <row r="37" spans="2:5">
-      <c r="B37" s="1">
+      <c r="F36">
+        <v>0.461740658963114</v>
+      </c>
+      <c r="G36">
+        <v>0.0068653167437446</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" s="3">
         <v>800000</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="3">
         <v>0.0493442533378623</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="3">
         <v>0.497277005023824</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="3">
         <v>0.0394940271394406</v>
       </c>
-    </row>
-    <row r="38" spans="2:5">
-      <c r="B38" s="1">
+      <c r="F37">
+        <v>0.461740658963114</v>
+      </c>
+      <c r="G37">
+        <v>0.0068653167437446</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="3">
         <v>825000</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="3">
         <v>0.0493442533378623</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="3">
         <v>0.497277005023824</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="3">
         <v>0.038021457786324</v>
       </c>
-    </row>
-    <row r="39" spans="2:5">
-      <c r="B39" s="1">
+      <c r="F38">
+        <v>0.461740658963114</v>
+      </c>
+      <c r="G38">
+        <v>0.0068653167437446</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="3">
         <v>850000</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="3">
         <v>0.0493442533378623</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39" s="3">
         <v>0.497277005023824</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39" s="3">
         <v>0.038021457786324</v>
       </c>
-    </row>
-    <row r="40" spans="2:5">
-      <c r="B40" s="1">
+      <c r="F39">
+        <v>0.461740658963114</v>
+      </c>
+      <c r="G39">
+        <v>0.0068653167437446</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="3">
         <v>875000</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="3">
         <v>0.0464485650126992</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40" s="3">
         <v>0.497277005023824</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40" s="3">
         <v>0.0378931143570451</v>
       </c>
-    </row>
-    <row r="41" spans="2:5">
-      <c r="B41" s="1">
+      <c r="F40">
+        <v>0.461740658963114</v>
+      </c>
+      <c r="G40">
+        <v>0.0068653167437446</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="3">
         <v>900000</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="3">
         <v>0.0464485650126992</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41" s="3">
         <v>0.497277005023824</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41" s="3">
         <v>0.0378931143570451</v>
       </c>
-    </row>
-    <row r="42" spans="2:5">
-      <c r="B42" s="1">
+      <c r="F41">
+        <v>0.461740658963114</v>
+      </c>
+      <c r="G41">
+        <v>0.0068653167437446</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" s="3">
         <v>925000</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="3">
         <v>0.045783956740663</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42" s="3">
         <v>0.497277005023824</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42" s="3">
         <v>0.0378931143570451</v>
       </c>
-    </row>
-    <row r="43" spans="2:5">
-      <c r="B43" s="1">
+      <c r="F42">
+        <v>0.461740658963114</v>
+      </c>
+      <c r="G42">
+        <v>0.0068653167437446</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" s="3">
         <v>950000</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="3">
         <v>0.045783956740663</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43" s="3">
         <v>0.497277005023824</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43" s="3">
         <v>0.0378931143570451</v>
       </c>
-    </row>
-    <row r="44" spans="2:5">
-      <c r="B44" s="1">
+      <c r="F43">
+        <v>0.461740658963114</v>
+      </c>
+      <c r="G43">
+        <v>0.0068653167437446</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44" s="3">
         <v>975000</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="3">
         <v>0.0449651967340071</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44" s="3">
         <v>0.497277005023824</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44" s="3">
         <v>0.0378931143570451</v>
       </c>
-    </row>
-    <row r="45" spans="2:5">
-      <c r="B45" s="1">
+      <c r="F44">
+        <v>0.461740658963114</v>
+      </c>
+      <c r="G44">
+        <v>0.0068653167437446</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45" s="3">
         <v>1000000</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="3">
         <v>0.0449651967340071</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45" s="3">
         <v>0.497277005023824</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45" s="3">
         <v>0.0365433123726332</v>
+      </c>
+      <c r="F45">
+        <v>0.461740658963114</v>
+      </c>
+      <c r="G45">
+        <v>0.0068653167437446</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:E3"/>
+    <mergeCell ref="B2:G3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
